--- a/binaries/FCfiles/ManageBilling/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/ManageBilling/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>shipmentType</t>
   </si>
@@ -402,6 +402,21 @@
   </si>
   <si>
     <t>FCBTXA1000295</t>
+  </si>
+  <si>
+    <t>51524494</t>
+  </si>
+  <si>
+    <t>12-17-2021</t>
+  </si>
+  <si>
+    <t>$987.51</t>
+  </si>
+  <si>
+    <t>FCT921423347332415488</t>
+  </si>
+  <si>
+    <t>CEV1003318</t>
   </si>
 </sst>
 </file>
@@ -431,7 +446,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,8 +623,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -834,6 +899,41 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -842,7 +942,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -875,7 +975,12 @@
     <xf applyBorder="true" applyFill="true" borderId="27" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="29" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="31" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="33" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="41" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1404,8 +1509,8 @@
     <col min="20" max="21" style="1" width="9.140625" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.95703125" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.9453125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="24.36328125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.28125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="15.70703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="15.70703125" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
     <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
@@ -1523,8 +1628,8 @@
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>119</v>
+      <c r="B2" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -1577,20 +1682,20 @@
       <c r="U2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="23" t="s">
-        <v>118</v>
+      <c r="V2" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="X2" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y2" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z2" s="27" t="s">
-        <v>121</v>
+      <c r="X2" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z2" s="37" t="s">
+        <v>129</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>74</v>

--- a/binaries/FCfiles/ManageBilling/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/ManageBilling/QuickQuoteTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\ManageBilling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9DFF0A23-CCB5-43E1-B666-80328D4D918F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E51D4535-FDA1-42D8-980A-FD2152EB2D44}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
     <workbookView activeTab="2" tabRatio="589" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="132">
   <si>
     <t>shipmentType</t>
   </si>
@@ -353,48 +353,9 @@
     <t>51499554</t>
   </si>
   <si>
-    <t>$1,366.31</t>
-  </si>
-  <si>
-    <t>11-24-2021</t>
-  </si>
-  <si>
-    <t>51521936</t>
-  </si>
-  <si>
-    <t>FCT912976996311498752</t>
-  </si>
-  <si>
-    <t>CEV1003251</t>
-  </si>
-  <si>
-    <t>11-27-2021</t>
-  </si>
-  <si>
-    <t>51522300</t>
-  </si>
-  <si>
-    <t>$568.29</t>
-  </si>
-  <si>
-    <t>FCT914202222756102144</t>
-  </si>
-  <si>
-    <t>FCESTES1003272</t>
-  </si>
-  <si>
-    <t>51522379</t>
-  </si>
-  <si>
     <t>11-29-2021</t>
   </si>
   <si>
-    <t>$842.06</t>
-  </si>
-  <si>
-    <t>FCBTXA1000294</t>
-  </si>
-  <si>
     <t>51522385</t>
   </si>
   <si>
@@ -417,6 +378,51 @@
   </si>
   <si>
     <t>CEV1003318</t>
+  </si>
+  <si>
+    <t>51524613</t>
+  </si>
+  <si>
+    <t>12-20-2021</t>
+  </si>
+  <si>
+    <t>FCT922395541839544320</t>
+  </si>
+  <si>
+    <t>CEV1003332</t>
+  </si>
+  <si>
+    <t>51524614</t>
+  </si>
+  <si>
+    <t>$1,126.88</t>
+  </si>
+  <si>
+    <t>FCT922396356394352640</t>
+  </si>
+  <si>
+    <t>CEV1003333</t>
+  </si>
+  <si>
+    <t>51524697</t>
+  </si>
+  <si>
+    <t>12-21-2021</t>
+  </si>
+  <si>
+    <t>FCT922706247046660096</t>
+  </si>
+  <si>
+    <t>CEV1003338</t>
+  </si>
+  <si>
+    <t>51524698</t>
+  </si>
+  <si>
+    <t>FCT922707094593863680</t>
+  </si>
+  <si>
+    <t>CEV1003339</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,8 +679,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -934,6 +990,41 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -942,7 +1033,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -980,7 +1071,12 @@
     <xf applyBorder="true" applyFill="true" borderId="37" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="39" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="41" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="43" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="45" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="47" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="49" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="51" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="53" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1484,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,9 +1605,9 @@
     <col min="20" max="21" style="1" width="9.140625" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.95703125" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.28125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="15.70703125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="15.70703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.9453125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="24.36328125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="12.3359375" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
     <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
     <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
@@ -1689,13 +1785,13 @@
         <v>106</v>
       </c>
       <c r="X2" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y2" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Z2" s="37" t="s">
         <v>128</v>
-      </c>
-      <c r="Z2" s="37" t="s">
-        <v>129</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>74</v>
@@ -1724,8 +1820,8 @@
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>119</v>
+      <c r="B3" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -1776,20 +1872,20 @@
       <c r="U3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="28" t="s">
-        <v>122</v>
+      <c r="V3" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="W3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="X3" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y3" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z3" s="32" t="s">
-        <v>124</v>
+      <c r="X3" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y3" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z3" s="42" t="s">
+        <v>131</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>74</v>
